--- a/src/test/java/resources/Capitals.xlsx
+++ b/src/test/java/resources/Capitals.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\OneDrive\Masaüstü\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\B171Selenium\B171SeleniumProject\src\test\java\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7900"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7896"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -355,12 +355,12 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
